--- a/CSPROJ2 Documentation/Activity List/Activity List (Draft).xlsx
+++ b/CSPROJ2 Documentation/Activity List/Activity List (Draft).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-2\CSPROJ2 Documentation\Activity List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Group-2\trunk\CSPROJ2 Documentation\Activity List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,6 +373,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -408,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,15 +596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -941,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>46</v>
       </c>
@@ -1175,6 +1209,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
